--- a/data/trans_orig/P1423_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1423_2015-Edad-trans_orig.xlsx
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,86%</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1718,19 +1718,19 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
         <v>1089</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1193057</v>
+        <v>1193058</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>78,37%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>85,76%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,57%</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>90,62%</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,82%</t>
         </is>
       </c>
     </row>
